--- a/WarehouseManagementDesktopApp/bin/Debug/net6.0-windows/Template_XK.xlsx
+++ b/WarehouseManagementDesktopApp/bin/Debug/net6.0-windows/Template_XK.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LVTN\Warehouse_DesktopApp\WarehouseManagementDesktopApp\WarehouseManagementDesktopApp.Core\bin\Debug\net6.0-windows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LVTN\File liên quan\ExcelFromCompany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBE15E7-1D65-4C1F-A2AC-E6ED2AC01C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905C1823-1F2A-43BC-920A-9C68A4BD9D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,19 @@
     <t>Lần sửa đổi</t>
   </si>
   <si>
+    <t>Tổ/ Nhóm/ Người
+thực hiện</t>
+  </si>
+  <si>
     <t>Ngày thực hiện</t>
   </si>
   <si>
+    <t>Nội dung xuất</t>
+  </si>
+  <si>
+    <t>Số toa/Phiếu</t>
+  </si>
+  <si>
     <t>Stt</t>
   </si>
   <si>
@@ -64,15 +74,6 @@
   </si>
   <si>
     <t>Bộ/Cái</t>
-  </si>
-  <si>
-    <t>Vị trí Ô</t>
-  </si>
-  <si>
-    <t>Vị trí Rổ</t>
-  </si>
-  <si>
-    <t>Mã rổ</t>
   </si>
 </sst>
 </file>
@@ -345,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -395,60 +396,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -478,6 +425,57 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,14 +498,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>264104</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>124627</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>143566</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
@@ -807,14 +805,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H12" sqref="A11:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="9.109375" style="16" customWidth="1"/>
     <col min="3" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
@@ -822,53 +821,58 @@
     <col min="8" max="8" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24"/>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
       <c r="G1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="21"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
       <c r="G2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="21"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
       <c r="G3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="21"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
       <c r="G4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
       <c r="B5" s="14"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -877,79 +881,80 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="19"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
+    <row r="6" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="20"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="32"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="41" t="s">
+    <row r="7" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="41"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="27"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="28"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
       <c r="B11" s="15"/>
       <c r="C11" s="17"/>
       <c r="D11" s="2"/>
@@ -957,10 +962,9 @@
       <c r="F11" s="4"/>
       <c r="G11" s="5"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
       <c r="B12" s="15"/>
       <c r="C12" s="18"/>
       <c r="D12" s="2"/>
@@ -968,10 +972,9 @@
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
       <c r="B13" s="15"/>
       <c r="C13" s="18"/>
       <c r="D13" s="2"/>
@@ -979,10 +982,9 @@
       <c r="F13" s="4"/>
       <c r="G13" s="5"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
       <c r="B14" s="15"/>
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
@@ -990,10 +992,9 @@
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
       <c r="B15" s="15"/>
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
@@ -1001,10 +1002,9 @@
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
       <c r="B16" s="15"/>
       <c r="C16" s="3"/>
       <c r="D16" s="2"/>
@@ -1012,10 +1012,9 @@
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
       <c r="B17" s="15"/>
       <c r="C17" s="3"/>
       <c r="D17" s="2"/>
@@ -1023,10 +1022,9 @@
       <c r="F17" s="4"/>
       <c r="G17" s="5"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
       <c r="B18" s="15"/>
       <c r="C18" s="3"/>
       <c r="D18" s="2"/>
@@ -1034,10 +1032,9 @@
       <c r="F18" s="4"/>
       <c r="G18" s="5"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
       <c r="B19" s="15"/>
       <c r="C19" s="3"/>
       <c r="D19" s="2"/>
@@ -1045,10 +1042,9 @@
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
       <c r="B20" s="15"/>
       <c r="C20" s="3"/>
       <c r="D20" s="2"/>
@@ -1056,10 +1052,9 @@
       <c r="F20" s="4"/>
       <c r="G20" s="5"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
       <c r="B21" s="15"/>
       <c r="C21" s="3"/>
       <c r="D21" s="2"/>
@@ -1067,10 +1062,9 @@
       <c r="F21" s="4"/>
       <c r="G21" s="5"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
       <c r="B22" s="15"/>
       <c r="C22" s="3"/>
       <c r="D22" s="2"/>
@@ -1078,10 +1072,9 @@
       <c r="F22" s="4"/>
       <c r="G22" s="5"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
       <c r="B23" s="15"/>
       <c r="C23" s="3"/>
       <c r="D23" s="2"/>
@@ -1089,10 +1082,9 @@
       <c r="F23" s="4"/>
       <c r="G23" s="5"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
       <c r="B24" s="15"/>
       <c r="C24" s="3"/>
       <c r="D24" s="2"/>
@@ -1100,10 +1092,9 @@
       <c r="F24" s="4"/>
       <c r="G24" s="5"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
       <c r="B25" s="15"/>
       <c r="C25" s="3"/>
       <c r="D25" s="2"/>
@@ -1111,10 +1102,9 @@
       <c r="F25" s="4"/>
       <c r="G25" s="5"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
       <c r="B26" s="15"/>
       <c r="C26" s="3"/>
       <c r="D26" s="2"/>
@@ -1122,10 +1112,9 @@
       <c r="F26" s="4"/>
       <c r="G26" s="5"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
       <c r="B27" s="15"/>
       <c r="C27" s="3"/>
       <c r="D27" s="2"/>
@@ -1133,10 +1122,9 @@
       <c r="F27" s="4"/>
       <c r="G27" s="5"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
       <c r="B28" s="15"/>
       <c r="C28" s="3"/>
       <c r="D28" s="2"/>
@@ -1144,10 +1132,9 @@
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
       <c r="B29" s="15"/>
       <c r="C29" s="3"/>
       <c r="D29" s="2"/>
@@ -1155,10 +1142,9 @@
       <c r="F29" s="4"/>
       <c r="G29" s="5"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
       <c r="B30" s="15"/>
       <c r="C30" s="3"/>
       <c r="D30" s="2"/>
@@ -1166,10 +1152,9 @@
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
       <c r="B31" s="15"/>
       <c r="C31" s="3"/>
       <c r="D31" s="2"/>
@@ -1177,10 +1162,9 @@
       <c r="F31" s="4"/>
       <c r="G31" s="5"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
       <c r="B32" s="15"/>
       <c r="C32" s="3"/>
       <c r="D32" s="2"/>
@@ -1188,10 +1172,9 @@
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
       <c r="B33" s="15"/>
       <c r="C33" s="3"/>
       <c r="D33" s="2"/>
@@ -1199,10 +1182,9 @@
       <c r="F33" s="4"/>
       <c r="G33" s="5"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
       <c r="B34" s="15"/>
       <c r="C34" s="3"/>
       <c r="D34" s="2"/>
@@ -1210,10 +1192,9 @@
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
       <c r="B35" s="15"/>
       <c r="C35" s="3"/>
       <c r="D35" s="2"/>
@@ -1221,10 +1202,9 @@
       <c r="F35" s="4"/>
       <c r="G35" s="5"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
       <c r="B36" s="15"/>
       <c r="C36" s="3"/>
       <c r="D36" s="2"/>
@@ -1232,10 +1212,9 @@
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
       <c r="B37" s="15"/>
       <c r="C37" s="3"/>
       <c r="D37" s="2"/>
@@ -1243,10 +1222,9 @@
       <c r="F37" s="4"/>
       <c r="G37" s="5"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
       <c r="B38" s="15"/>
       <c r="C38" s="3"/>
       <c r="D38" s="2"/>
@@ -1254,10 +1232,9 @@
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
       <c r="B39" s="15"/>
       <c r="C39" s="3"/>
       <c r="D39" s="2"/>
@@ -1265,10 +1242,9 @@
       <c r="F39" s="4"/>
       <c r="G39" s="5"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="15"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
       <c r="B40" s="15"/>
       <c r="C40" s="3"/>
       <c r="D40" s="2"/>
@@ -1276,10 +1252,9 @@
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
       <c r="B41" s="15"/>
       <c r="C41" s="3"/>
       <c r="D41" s="2"/>
@@ -1287,10 +1262,9 @@
       <c r="F41" s="4"/>
       <c r="G41" s="5"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="15"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
       <c r="B42" s="15"/>
       <c r="C42" s="3"/>
       <c r="D42" s="2"/>
@@ -1298,10 +1272,9 @@
       <c r="F42" s="4"/>
       <c r="G42" s="5"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="15"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
       <c r="B43" s="15"/>
       <c r="C43" s="3"/>
       <c r="D43" s="2"/>
@@ -1309,10 +1282,9 @@
       <c r="F43" s="4"/>
       <c r="G43" s="5"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="15"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
       <c r="B44" s="15"/>
       <c r="C44" s="3"/>
       <c r="D44" s="2"/>
@@ -1320,24 +1292,24 @@
       <c r="F44" s="4"/>
       <c r="G44" s="5"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="I9:I10"/>
+  <mergeCells count="15">
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:F4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B8:H8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:F4"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
